--- a/capturar_clientes.xlsx
+++ b/capturar_clientes.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>ANTONIA UBERLANIA DA SILVA ALVES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>nome_cliente</t>
   </si>
@@ -159,6 +156,87 @@
   </si>
   <si>
     <t xml:space="preserve">Dias_Sem_andamento </t>
+  </si>
+  <si>
+    <t>ABN</t>
+  </si>
+  <si>
+    <t>BRASILIA</t>
+  </si>
+  <si>
+    <t>fechado</t>
+  </si>
+  <si>
+    <t>N USAR - QUITA€ÇO SANT LEVES</t>
+  </si>
+  <si>
+    <t>01 - Ajuizado</t>
+  </si>
+  <si>
+    <t>CEILANDIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009.03.1.011125-5            </t>
+  </si>
+  <si>
+    <t>14 - Fase: Mandado Negativo</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:57:36.193</t>
+  </si>
+  <si>
+    <t>PETICIONAR - DESENTRANHAMENTO DO 2ø MDD</t>
+  </si>
+  <si>
+    <t>| 18/11/2019 13:57:36 - ZELIA R: /////MANDADO NEGATIVO PETICIONADO DESENTRANHAMENTO PARA O ENDERE€O:- NUCLEO RURAL DO TORTO, CHACARA 05 - LAGO NORTE/DF</t>
+  </si>
+  <si>
+    <t>26436.60</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>FORNAZIER E MAGALHAES</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>1¦ CIVEL</t>
+  </si>
+  <si>
+    <t>DEBITO QUITADO</t>
+  </si>
+  <si>
+    <t>ZELIA R</t>
+  </si>
+  <si>
+    <t>ZELIA RODRIGUES RIOS</t>
+  </si>
+  <si>
+    <t>DESLIGADO</t>
+  </si>
+  <si>
+    <t>Transitorio</t>
+  </si>
+  <si>
+    <t>VEICULOS</t>
+  </si>
+  <si>
+    <t>LUIZ GONZAGA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>LAGO NORTE</t>
+  </si>
+  <si>
+    <t>64.75</t>
+  </si>
+  <si>
+    <t>LEVES</t>
+  </si>
+  <si>
+    <t>ANTIGO</t>
   </si>
 </sst>
 </file>
@@ -201,9 +279,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,141 +618,267 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>40660</v>
+      </c>
+      <c r="D2">
+        <v>70007661190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40400</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>3894</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2" s="3">
+        <v>47193100000000</v>
+      </c>
+      <c r="T2">
+        <v>22475443120</v>
+      </c>
+      <c r="U2">
+        <v>40660</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>26436.6</v>
+      </c>
+      <c r="X2">
+        <v>26436.6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2">
+        <v>3505</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>65</v>
+      </c>
       <c r="AM2" t="s">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
